--- a/PORTAL DE SISTEMAS AGR/Documentação Software/Transporte Não-Regular (Fretamento)/Melhorias Adaptativas/Melhorias Adaptativas - Portal de Sistemas.xlsx
+++ b/PORTAL DE SISTEMAS AGR/Documentação Software/Transporte Não-Regular (Fretamento)/Melhorias Adaptativas/Melhorias Adaptativas - Portal de Sistemas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIAGR\PORTAL DE SISTEMAS AGR\Documentação Software\Transporte Não-Regular (Fretamento)\Melhorias Adaptativas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIAGR.old\PORTAL DE SISTEMAS AGR\Documentação Software\Transporte Não-Regular (Fretamento)\Melhorias Adaptativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
   <si>
     <t>Melhorias Adaptativas - Portal de Sistemas</t>
   </si>
@@ -265,6 +265,15 @@
       </rPr>
       <t>(Verificar no histórico o porquê de várias abas inativa).</t>
     </r>
+  </si>
+  <si>
+    <t>Implementar checklist para documentação de CRV</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Verificar possibilidade de aumentar a quantidade de conexoes simultaneas no portal de sistemas para um mesmo login</t>
   </si>
 </sst>
 </file>
@@ -604,14 +613,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,6 +622,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1011,15 +1020,15 @@
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -1048,11 +1057,11 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
@@ -2080,19 +2089,19 @@
       <c r="B41" s="51">
         <v>35</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="54" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="57" t="s">
+      <c r="G41" s="53" t="s">
         <v>62</v>
       </c>
       <c r="H41" s="46"/>
@@ -2109,19 +2118,19 @@
       <c r="B42" s="51">
         <v>36</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="53" t="s">
         <v>62</v>
       </c>
       <c r="H42" s="46"/>
@@ -2138,19 +2147,19 @@
       <c r="B43" s="51">
         <v>37</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="57" t="s">
+      <c r="G43" s="53" t="s">
         <v>62</v>
       </c>
       <c r="H43" s="46"/>
@@ -2164,10 +2173,18 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="45"/>
+      <c r="B44" s="51">
+        <v>38</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>67</v>
+      </c>
       <c r="F44" s="46"/>
       <c r="G44" s="45"/>
       <c r="H44" s="46"/>
@@ -2179,12 +2196,20 @@
       <c r="N44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" ht="30">
       <c r="A45" s="1"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="45"/>
+      <c r="B45" s="51">
+        <v>39</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="F45" s="46"/>
       <c r="G45" s="45"/>
       <c r="H45" s="46"/>
